--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sims\SimsSvn\Database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24615" windowHeight="12855"/>
+    <workbookView windowWidth="21000" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
   <si>
     <t>Ability</t>
   </si>
@@ -127,6 +122,9 @@
     <t>115</t>
   </si>
   <si>
+    <t>烹调</t>
+  </si>
+  <si>
     <t>116</t>
   </si>
   <si>
@@ -188,18 +186,22 @@
   </si>
   <si>
     <t>厨艺</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>烹调</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试能力</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,6 +214,156 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -224,36 +376,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -261,11 +579,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,27 +837,68 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -555,19 +1156,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
@@ -576,12 +1177,12 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -598,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -615,7 +1216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -632,7 +1233,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -649,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -666,7 +1267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -683,7 +1284,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -700,7 +1301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
@@ -717,12 +1318,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>1</v>
@@ -734,12 +1335,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>1</v>
@@ -751,12 +1352,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>1</v>
@@ -768,12 +1369,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -785,12 +1386,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>16</v>
@@ -802,12 +1403,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>1</v>
@@ -819,12 +1420,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>1</v>
@@ -836,12 +1437,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>1</v>
@@ -853,12 +1454,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>1</v>
@@ -870,12 +1471,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>1</v>
@@ -887,61 +1488,69 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="1">
         <v>0</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>126</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="1">
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="6">
+    <row r="22" spans="1:5">
+      <c r="A22" s="5">
         <v>127</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5">
         <v>0</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>16</v>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="5">
+        <v>128</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -196,12 +196,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,28 +217,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,6 +308,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -260,100 +339,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,26 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,17 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -653,16 +626,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,16 +641,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -695,19 +689,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,116 +710,116 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,12 +829,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1165,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1523,28 +1511,31 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="1">
         <v>127</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5">
+      <c r="D22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>128</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -216,6 +216,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -224,7 +239,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,12 +254,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -258,6 +295,28 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,16 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,67 +346,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,19 +380,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,163 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,9 +576,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,37 +642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,166 +671,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1527,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>128</v>
       </c>
@@ -1536,6 +1536,9 @@
       </c>
       <c r="C23" s="1">
         <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12630"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -197,8 +197,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -218,43 +218,52 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,52 +278,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,15 +331,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,37 +380,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,145 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,6 +571,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,11 +633,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -612,62 +666,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1527,7 +1527,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>128</v>
       </c>
@@ -1538,6 +1538,9 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
         <v>0</v>
       </c>
     </row>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -196,9 +196,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -216,7 +216,82 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -224,46 +299,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,28 +338,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,53 +357,6 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,43 +380,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,139 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,17 +574,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,46 +598,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,9 +630,44 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="21030" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -196,10 +196,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,7 +217,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,124 +281,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,6 +302,61 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -380,13 +380,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,169 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,8 +577,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,16 +623,36 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,195 +671,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -197,9 +197,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -224,14 +224,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,116 +299,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,47 +577,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,19 +612,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,19 +689,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,112 +710,112 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -196,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -217,6 +217,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -224,14 +254,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,8 +275,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,40 +307,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,47 +353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,15 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,26 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +624,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -671,16 +662,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="E23" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -197,9 +197,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -217,15 +217,90 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,59 +321,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -324,37 +346,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,25 +380,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,157 +554,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,17 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -605,6 +594,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,6 +646,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,25 +671,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1538,10 +1538,10 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/能力表.xlsx
+++ b/DataBase/能力表.xlsx
@@ -196,8 +196,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -217,21 +217,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,61 +307,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,6 +337,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -332,29 +355,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +380,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,175 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -571,30 +571,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -641,18 +617,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,16 +651,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
